--- a/src/gatourism/data_C.xlsx
+++ b/src/gatourism/data_C.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Tourist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tourism\Tourism\src\gatourism\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832775C2-75C9-4F0D-95EF-6F45A18906E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="8115"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>1</t>
   </si>
@@ -50,12 +61,15 @@
   <si>
     <t>10</t>
   </si>
+  <si>
+    <t>11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +81,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -410,16 +430,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +470,11 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -485,8 +508,12 @@
       <c r="K2">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>AVERAGE(B2:K2)</f>
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -520,8 +547,12 @@
       <c r="K3">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="0">AVERAGE(B3:K3)</f>
+        <v>3.0000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -555,8 +586,12 @@
       <c r="K4">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -590,8 +625,12 @@
       <c r="K5">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -625,8 +664,12 @@
       <c r="K6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>3.0100000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -660,8 +703,12 @@
       <c r="K7">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>3.2299999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -695,8 +742,12 @@
       <c r="K8">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -730,8 +781,12 @@
       <c r="K9">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -765,8 +820,12 @@
       <c r="K10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -800,8 +859,12 @@
       <c r="K11">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -835,8 +898,12 @@
       <c r="K12">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -870,8 +937,12 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -905,8 +976,12 @@
       <c r="K14">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -940,8 +1015,12 @@
       <c r="K15">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>2.5700000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -975,8 +1054,12 @@
       <c r="K16">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1010,8 +1093,12 @@
       <c r="K17">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>3.2299999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1045,8 +1132,12 @@
       <c r="K18">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1080,8 +1171,12 @@
       <c r="K19">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1115,8 +1210,12 @@
       <c r="K20">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1150,8 +1249,12 @@
       <c r="K21">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1185,8 +1288,12 @@
       <c r="K22">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1220,8 +1327,12 @@
       <c r="K23">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1255,8 +1366,12 @@
       <c r="K24">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1290,8 +1405,12 @@
       <c r="K25">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>2.7700000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1325,8 +1444,12 @@
       <c r="K26">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>2.3500000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1360,8 +1483,12 @@
       <c r="K27">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1.6199999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1395,8 +1522,12 @@
       <c r="K28">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1430,8 +1561,12 @@
       <c r="K29">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>2.9200000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1465,8 +1600,12 @@
       <c r="K30">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1500,8 +1639,12 @@
       <c r="K31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1535,8 +1678,12 @@
       <c r="K32">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>2.3500000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1570,8 +1717,12 @@
       <c r="K33">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>3.1500000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1605,8 +1756,12 @@
       <c r="K34">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1640,8 +1795,12 @@
       <c r="K35">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>3.0899999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1675,8 +1834,12 @@
       <c r="K36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>3.2700000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1710,8 +1873,12 @@
       <c r="K37">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>2.1799999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1745,8 +1912,12 @@
       <c r="K38">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>2.5100000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1780,8 +1951,12 @@
       <c r="K39">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1815,8 +1990,12 @@
       <c r="K40">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1850,8 +2029,12 @@
       <c r="K41">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1885,8 +2068,12 @@
       <c r="K42">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1920,8 +2107,12 @@
       <c r="K43">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1955,8 +2146,12 @@
       <c r="K44">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>2.7600000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1990,8 +2185,12 @@
       <c r="K45">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>2.8300000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2025,8 +2224,12 @@
       <c r="K46">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2060,8 +2263,12 @@
       <c r="K47">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>2.9200000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2095,8 +2302,12 @@
       <c r="K48">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>3.2700000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2130,8 +2341,12 @@
       <c r="K49">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2165,8 +2380,12 @@
       <c r="K50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>2.4799999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2200,8 +2419,12 @@
       <c r="K51">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2235,8 +2458,12 @@
       <c r="K52">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2270,8 +2497,12 @@
       <c r="K53">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2305,8 +2536,12 @@
       <c r="K54">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>2.9400000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2340,8 +2575,12 @@
       <c r="K55">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2375,8 +2614,12 @@
       <c r="K56">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>2.8299999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2410,8 +2653,12 @@
       <c r="K57">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2445,8 +2692,12 @@
       <c r="K58">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2480,8 +2731,12 @@
       <c r="K59">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>2.6699999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2515,8 +2770,12 @@
       <c r="K60">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2550,8 +2809,12 @@
       <c r="K61">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>2.6300000000000008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2585,8 +2848,12 @@
       <c r="K62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2620,8 +2887,12 @@
       <c r="K63">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>2.8600000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2655,8 +2926,12 @@
       <c r="K64">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2690,8 +2965,12 @@
       <c r="K65">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>2.5300000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2725,8 +3004,12 @@
       <c r="K66">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2760,8 +3043,12 @@
       <c r="K67">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <f t="shared" ref="L67:L130" si="1">AVERAGE(B67:K67)</f>
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2795,8 +3082,12 @@
       <c r="K68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2830,8 +3121,12 @@
       <c r="K69">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>2.4400000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2865,8 +3160,12 @@
       <c r="K70">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2900,8 +3199,12 @@
       <c r="K71">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>2.7299999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2935,8 +3238,12 @@
       <c r="K72">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>2.9400000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2970,8 +3277,12 @@
       <c r="K73">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3005,8 +3316,12 @@
       <c r="K74">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>2.5199999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3040,8 +3355,12 @@
       <c r="K75">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>3.2699999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3075,8 +3394,12 @@
       <c r="K76">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3110,8 +3433,12 @@
       <c r="K77">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3145,8 +3472,12 @@
       <c r="K78">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>2.4099999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3180,8 +3511,12 @@
       <c r="K79">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>2.3000000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3215,8 +3550,12 @@
       <c r="K80">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3250,8 +3589,12 @@
       <c r="K81">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>2.9200000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3285,8 +3628,12 @@
       <c r="K82">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3320,8 +3667,12 @@
       <c r="K83">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3355,8 +3706,12 @@
       <c r="K84">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>3.0599999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3390,8 +3745,12 @@
       <c r="K85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <f t="shared" si="1"/>
+        <v>2.4299999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3425,8 +3784,12 @@
       <c r="K86">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <f t="shared" si="1"/>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3460,8 +3823,12 @@
       <c r="K87">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3495,8 +3862,12 @@
       <c r="K88">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <f t="shared" si="1"/>
+        <v>2.7600000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3530,8 +3901,12 @@
       <c r="K89">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3565,8 +3940,12 @@
       <c r="K90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3600,8 +3979,12 @@
       <c r="K91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <f t="shared" si="1"/>
+        <v>4.2299999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3635,8 +4018,12 @@
       <c r="K92">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <f t="shared" si="1"/>
+        <v>3.4899999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3670,8 +4057,12 @@
       <c r="K93">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>2.7899999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3705,8 +4096,12 @@
       <c r="K94">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <f t="shared" si="1"/>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3740,8 +4135,12 @@
       <c r="K95">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>2.1399999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3775,8 +4174,12 @@
       <c r="K96">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <f t="shared" si="1"/>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3810,8 +4213,12 @@
       <c r="K97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <f t="shared" si="1"/>
+        <v>2.4400000000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3845,8 +4252,12 @@
       <c r="K98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <f t="shared" si="1"/>
+        <v>3.0599999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3880,8 +4291,12 @@
       <c r="K99">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <f t="shared" si="1"/>
+        <v>2.3100000000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3915,8 +4330,12 @@
       <c r="K100">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <f t="shared" si="1"/>
+        <v>2.9900000000000007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3950,8 +4369,12 @@
       <c r="K101">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <f t="shared" si="1"/>
+        <v>3.3599999999999994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3985,8 +4408,12 @@
       <c r="K102">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <f t="shared" si="1"/>
+        <v>1.9400000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4020,8 +4447,12 @@
       <c r="K103">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <f t="shared" si="1"/>
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4055,8 +4486,12 @@
       <c r="K104">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4090,8 +4525,12 @@
       <c r="K105">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <f t="shared" si="1"/>
+        <v>2.6399999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4125,8 +4564,12 @@
       <c r="K106">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <f t="shared" si="1"/>
+        <v>3.0500000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4160,8 +4603,12 @@
       <c r="K107">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <f t="shared" si="1"/>
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4195,8 +4642,12 @@
       <c r="K108">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <f t="shared" si="1"/>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4230,8 +4681,12 @@
       <c r="K109">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <f t="shared" si="1"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4265,8 +4720,12 @@
       <c r="K110">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <f t="shared" si="1"/>
+        <v>3.5700000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4300,8 +4759,12 @@
       <c r="K111">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <f t="shared" si="1"/>
+        <v>2.1100000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4335,8 +4798,12 @@
       <c r="K112">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <f t="shared" si="1"/>
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4370,8 +4837,12 @@
       <c r="K113">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <f t="shared" si="1"/>
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4405,8 +4876,12 @@
       <c r="K114">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <f t="shared" si="1"/>
+        <v>2.9199999999999995</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4440,8 +4915,12 @@
       <c r="K115">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <f t="shared" si="1"/>
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4475,8 +4954,12 @@
       <c r="K116">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <f t="shared" si="1"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4510,8 +4993,12 @@
       <c r="K117">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <f t="shared" si="1"/>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4545,8 +5032,12 @@
       <c r="K118">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4580,8 +5071,12 @@
       <c r="K119">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <f t="shared" si="1"/>
+        <v>2.8499999999999996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4615,8 +5110,12 @@
       <c r="K120">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <f t="shared" si="1"/>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4650,8 +5149,12 @@
       <c r="K121">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <f t="shared" si="1"/>
+        <v>3.4199999999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4685,8 +5188,12 @@
       <c r="K122">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <f t="shared" si="1"/>
+        <v>2.6399999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4720,8 +5227,12 @@
       <c r="K123">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <f t="shared" si="1"/>
+        <v>2.5599999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4755,8 +5266,12 @@
       <c r="K124">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124">
+        <f t="shared" si="1"/>
+        <v>3.1900000000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4790,8 +5305,12 @@
       <c r="K125">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <f t="shared" si="1"/>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4825,8 +5344,12 @@
       <c r="K126">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126">
+        <f t="shared" si="1"/>
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4860,8 +5383,12 @@
       <c r="K127">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127">
+        <f t="shared" si="1"/>
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4895,8 +5422,12 @@
       <c r="K128">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128">
+        <f t="shared" si="1"/>
+        <v>3.0599999999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4930,8 +5461,12 @@
       <c r="K129">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129">
+        <f t="shared" si="1"/>
+        <v>3.2299999999999995</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4965,8 +5500,12 @@
       <c r="K130">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130">
+        <f t="shared" si="1"/>
+        <v>2.6499999999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5000,8 +5539,12 @@
       <c r="K131">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131">
+        <f t="shared" ref="L131:L191" si="2">AVERAGE(B131:K131)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5035,8 +5578,12 @@
       <c r="K132">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132">
+        <f t="shared" si="2"/>
+        <v>3.1700000000000004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5070,8 +5617,12 @@
       <c r="K133">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133">
+        <f t="shared" si="2"/>
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5105,8 +5656,12 @@
       <c r="K134">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134">
+        <f t="shared" si="2"/>
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5140,8 +5695,12 @@
       <c r="K135">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135">
+        <f t="shared" si="2"/>
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5175,8 +5734,12 @@
       <c r="K136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136">
+        <f t="shared" si="2"/>
+        <v>2.7399999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5210,8 +5773,12 @@
       <c r="K137">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137">
+        <f t="shared" si="2"/>
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5245,8 +5812,12 @@
       <c r="K138">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138">
+        <f t="shared" si="2"/>
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5280,8 +5851,12 @@
       <c r="K139">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139">
+        <f t="shared" si="2"/>
+        <v>2.5599999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5315,8 +5890,12 @@
       <c r="K140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5350,8 +5929,12 @@
       <c r="K141">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141">
+        <f t="shared" si="2"/>
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5385,8 +5968,12 @@
       <c r="K142">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142">
+        <f t="shared" si="2"/>
+        <v>2.2699999999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5420,8 +6007,12 @@
       <c r="K143">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5455,8 +6046,12 @@
       <c r="K144">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144">
+        <f t="shared" si="2"/>
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5490,8 +6085,12 @@
       <c r="K145">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145">
+        <f t="shared" si="2"/>
+        <v>1.9099999999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5525,8 +6124,12 @@
       <c r="K146">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146">
+        <f t="shared" si="2"/>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5560,8 +6163,12 @@
       <c r="K147">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147">
+        <f t="shared" si="2"/>
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5595,8 +6202,12 @@
       <c r="K148">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148">
+        <f t="shared" si="2"/>
+        <v>2.7600000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5630,8 +6241,12 @@
       <c r="K149">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149">
+        <f t="shared" si="2"/>
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5665,8 +6280,12 @@
       <c r="K150">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L150">
+        <f t="shared" si="2"/>
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5700,8 +6319,12 @@
       <c r="K151">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151">
+        <f t="shared" si="2"/>
+        <v>2.9299999999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5735,8 +6358,12 @@
       <c r="K152">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5770,8 +6397,12 @@
       <c r="K153">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153">
+        <f t="shared" si="2"/>
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5805,8 +6436,12 @@
       <c r="K154">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154">
+        <f t="shared" si="2"/>
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5840,8 +6475,12 @@
       <c r="K155">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155">
+        <f t="shared" si="2"/>
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5875,8 +6514,12 @@
       <c r="K156">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156">
+        <f t="shared" si="2"/>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5910,8 +6553,12 @@
       <c r="K157">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157">
+        <f t="shared" si="2"/>
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5945,8 +6592,12 @@
       <c r="K158">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158">
+        <f t="shared" si="2"/>
+        <v>2.2899999999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5980,8 +6631,12 @@
       <c r="K159">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159">
+        <f t="shared" si="2"/>
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6015,8 +6670,12 @@
       <c r="K160">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160">
+        <f t="shared" si="2"/>
+        <v>2.4199999999999995</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6050,8 +6709,12 @@
       <c r="K161">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161">
+        <f t="shared" si="2"/>
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6085,8 +6748,12 @@
       <c r="K162">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6120,8 +6787,12 @@
       <c r="K163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163">
+        <f t="shared" si="2"/>
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6155,8 +6826,12 @@
       <c r="K164">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164">
+        <f t="shared" si="2"/>
+        <v>3.0799999999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6190,8 +6865,12 @@
       <c r="K165">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165">
+        <f t="shared" si="2"/>
+        <v>2.6499999999999995</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6225,8 +6904,12 @@
       <c r="K166">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166">
+        <f t="shared" si="2"/>
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6260,8 +6943,12 @@
       <c r="K167">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6295,8 +6982,12 @@
       <c r="K168">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L168">
+        <f t="shared" si="2"/>
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6330,8 +7021,12 @@
       <c r="K169">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169">
+        <f t="shared" si="2"/>
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6365,8 +7060,12 @@
       <c r="K170">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L170">
+        <f t="shared" si="2"/>
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6400,8 +7099,12 @@
       <c r="K171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171">
+        <f t="shared" si="2"/>
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6435,8 +7138,12 @@
       <c r="K172">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L172">
+        <f t="shared" si="2"/>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6470,8 +7177,12 @@
       <c r="K173">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000007</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6505,8 +7216,12 @@
       <c r="K174">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L174">
+        <f t="shared" si="2"/>
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6540,8 +7255,12 @@
       <c r="K175">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L175">
+        <f t="shared" si="2"/>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6575,8 +7294,12 @@
       <c r="K176">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L176">
+        <f t="shared" si="2"/>
+        <v>2.3400000000000003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6610,8 +7333,12 @@
       <c r="K177">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177">
+        <f t="shared" si="2"/>
+        <v>2.3899999999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6645,8 +7372,12 @@
       <c r="K178">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L178">
+        <f t="shared" si="2"/>
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6680,8 +7411,12 @@
       <c r="K179">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L179">
+        <f t="shared" si="2"/>
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6715,8 +7450,12 @@
       <c r="K180">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L180">
+        <f t="shared" si="2"/>
+        <v>2.9200000000000004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6750,8 +7489,12 @@
       <c r="K181">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L181">
+        <f t="shared" si="2"/>
+        <v>2.9399999999999995</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6785,8 +7528,12 @@
       <c r="K182">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182">
+        <f t="shared" si="2"/>
+        <v>3.0999999999999996</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6820,8 +7567,12 @@
       <c r="K183">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L183">
+        <f t="shared" si="2"/>
+        <v>4.5200000000000005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6855,8 +7606,12 @@
       <c r="K184">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L184">
+        <f t="shared" si="2"/>
+        <v>3.0100000000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6890,8 +7645,12 @@
       <c r="K185">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L185">
+        <f t="shared" si="2"/>
+        <v>2.7800000000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6925,8 +7684,12 @@
       <c r="K186">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L186">
+        <f t="shared" si="2"/>
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6960,8 +7723,12 @@
       <c r="K187">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L187">
+        <f t="shared" si="2"/>
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6995,8 +7762,12 @@
       <c r="K188">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L188">
+        <f t="shared" si="2"/>
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -7030,8 +7801,12 @@
       <c r="K189">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L189">
+        <f t="shared" si="2"/>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -7065,8 +7840,12 @@
       <c r="K190">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L190">
+        <f t="shared" si="2"/>
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -7100,8 +7879,13 @@
       <c r="K191">
         <v>1.7</v>
       </c>
+      <c r="L191">
+        <f t="shared" si="2"/>
+        <v>2.7600000000000002</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/gatourism/data_C.xlsx
+++ b/src/gatourism/data_C.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tourism\Tourism\src\gatourism\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832775C2-75C9-4F0D-95EF-6F45A18906E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -68,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,16 +424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L191"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -513,7 +507,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -552,7 +546,7 @@
         <v>3.0000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -591,7 +585,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -630,7 +624,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -669,7 +663,7 @@
         <v>3.0100000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -708,7 +702,7 @@
         <v>3.2299999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -747,7 +741,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -786,7 +780,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -825,7 +819,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -864,7 +858,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,7 +897,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -942,7 +936,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -981,7 +975,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1020,7 +1014,7 @@
         <v>2.5700000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1059,7 +1053,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1098,7 +1092,7 @@
         <v>3.2299999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1137,7 +1131,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1176,7 +1170,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1215,7 +1209,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1254,7 +1248,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1293,7 +1287,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1332,7 +1326,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1410,7 +1404,7 @@
         <v>2.7700000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1449,7 +1443,7 @@
         <v>2.3500000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1488,7 +1482,7 @@
         <v>1.6199999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1527,7 +1521,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1566,7 +1560,7 @@
         <v>2.9200000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1605,7 +1599,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1644,7 +1638,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1683,7 +1677,7 @@
         <v>2.3500000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1722,7 +1716,7 @@
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1761,7 +1755,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1800,7 +1794,7 @@
         <v>3.0899999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1839,7 +1833,7 @@
         <v>3.2700000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1878,7 +1872,7 @@
         <v>2.1799999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1917,7 +1911,7 @@
         <v>2.5100000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1956,7 +1950,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1995,7 +1989,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2034,7 +2028,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2073,7 +2067,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2112,7 +2106,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2151,7 +2145,7 @@
         <v>2.7600000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2190,7 +2184,7 @@
         <v>2.8300000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2229,7 +2223,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2268,7 +2262,7 @@
         <v>2.9200000000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2307,7 +2301,7 @@
         <v>3.2700000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2346,7 +2340,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2385,7 +2379,7 @@
         <v>2.4799999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2424,7 +2418,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2463,7 +2457,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2502,7 +2496,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2541,7 +2535,7 @@
         <v>2.9400000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2580,7 +2574,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2619,7 +2613,7 @@
         <v>2.8299999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2658,7 +2652,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2697,7 +2691,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2736,7 +2730,7 @@
         <v>2.6699999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2775,7 +2769,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2814,7 +2808,7 @@
         <v>2.6300000000000008</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2853,7 +2847,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2892,7 +2886,7 @@
         <v>2.8600000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2931,7 +2925,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2970,7 +2964,7 @@
         <v>2.5300000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3009,7 +3003,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3044,11 +3038,11 @@
         <v>3.7</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L130" si="1">AVERAGE(B67:K67)</f>
+        <f t="shared" ref="L67:L129" si="1">AVERAGE(B67:K67)</f>
         <v>2.57</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3087,7 +3081,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3126,7 +3120,7 @@
         <v>2.4400000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3165,7 +3159,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3204,7 +3198,7 @@
         <v>2.7299999999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3243,7 +3237,7 @@
         <v>2.9400000000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3282,7 +3276,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3321,7 +3315,7 @@
         <v>2.5199999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3360,7 +3354,7 @@
         <v>3.2699999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3399,7 +3393,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3438,7 +3432,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3477,7 +3471,7 @@
         <v>2.4099999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3516,7 +3510,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3555,7 +3549,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3594,7 +3588,7 @@
         <v>2.9200000000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3633,7 +3627,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3672,7 +3666,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3711,7 +3705,7 @@
         <v>3.0599999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3750,7 +3744,7 @@
         <v>2.4299999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3789,7 +3783,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3828,7 +3822,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3867,7 +3861,7 @@
         <v>2.7600000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3906,7 +3900,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3945,7 +3939,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3984,7 +3978,7 @@
         <v>4.2299999999999995</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4023,7 +4017,7 @@
         <v>3.4899999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4062,7 +4056,7 @@
         <v>2.7899999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4101,7 +4095,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4140,7 +4134,7 @@
         <v>2.1399999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4179,7 +4173,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4218,7 +4212,7 @@
         <v>2.4400000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4257,7 +4251,7 @@
         <v>3.0599999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4296,7 +4290,7 @@
         <v>2.3100000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4335,7 +4329,7 @@
         <v>2.9900000000000007</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4374,7 +4368,7 @@
         <v>3.3599999999999994</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4413,7 +4407,7 @@
         <v>1.9400000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4452,1099 +4446,1099 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="C104">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E104">
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H104">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="I104">
         <v>4.2</v>
       </c>
       <c r="J104">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="K104">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L104">
         <f t="shared" si="1"/>
-        <v>3.1999999999999997</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.6399999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D105">
-        <v>2.2999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F105">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G105">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H105">
-        <v>1.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I105">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="J105">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="K105">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L105">
         <f t="shared" si="1"/>
-        <v>2.6399999999999997</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.0500000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="D106">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E106">
-        <v>4.0999999999999996</v>
+        <v>1.2</v>
       </c>
       <c r="F106">
-        <v>3.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G106">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H106">
-        <v>4.9000000000000004</v>
+        <v>2.1</v>
       </c>
       <c r="I106">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="J106">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K106">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="L106">
         <f t="shared" si="1"/>
-        <v>3.0500000000000003</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="C107">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="E107">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F107">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H107">
         <v>2.1</v>
       </c>
       <c r="I107">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="J107">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K107">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="L107">
         <f t="shared" si="1"/>
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="D108">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="E108">
         <v>1.5</v>
       </c>
       <c r="F108">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G108">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="H108">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="J108">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="K108">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="L108">
         <f t="shared" si="1"/>
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>2.2000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="C109">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="D109">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="E109">
-        <v>1.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F109">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G109">
+        <v>2.1</v>
+      </c>
+      <c r="H109">
+        <v>1.8</v>
+      </c>
+      <c r="I109">
+        <v>3.4</v>
+      </c>
+      <c r="J109">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G109">
-        <v>3</v>
-      </c>
-      <c r="H109">
-        <v>3</v>
-      </c>
-      <c r="I109">
-        <v>4.3</v>
-      </c>
-      <c r="J109">
-        <v>3.7</v>
-      </c>
       <c r="K109">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L109">
         <f t="shared" si="1"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.5700000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>3.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D110">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="E110">
-        <v>4.9000000000000004</v>
+        <v>1.7</v>
       </c>
       <c r="F110">
-        <v>4.9000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="G110">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H110">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I110">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="J110">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K110">
-        <v>4.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L110">
         <f t="shared" si="1"/>
-        <v>3.5700000000000003</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.1100000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C111">
         <v>4.4000000000000004</v>
       </c>
       <c r="D111">
-        <v>1.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E111">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="F111">
         <v>1.5</v>
       </c>
       <c r="G111">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H111">
+        <v>3.7</v>
+      </c>
+      <c r="I111">
+        <v>1.5</v>
+      </c>
+      <c r="J111">
         <v>3.8</v>
       </c>
-      <c r="H111">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I111">
-        <v>1.9</v>
-      </c>
-      <c r="J111">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="K111">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="L111">
         <f t="shared" si="1"/>
-        <v>2.1100000000000003</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="C112">
-        <v>4.4000000000000004</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D112">
+        <v>1.8</v>
+      </c>
+      <c r="E112">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F112">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E112">
+      <c r="G112">
         <v>2.9</v>
       </c>
-      <c r="F112">
-        <v>1.5</v>
-      </c>
-      <c r="G112">
-        <v>4.9000000000000004</v>
-      </c>
       <c r="H112">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J112">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="L112">
         <f t="shared" si="1"/>
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>2.2999999999999998</v>
+        <v>3.4</v>
       </c>
       <c r="D113">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="E113">
+        <v>1.5</v>
+      </c>
+      <c r="F113">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F113">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G113">
-        <v>2.9</v>
-      </c>
-      <c r="H113">
-        <v>4</v>
-      </c>
       <c r="I113">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="J113">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K113">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L113">
         <f t="shared" si="1"/>
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.9199999999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="C114">
+        <v>1.8</v>
+      </c>
+      <c r="D114">
+        <v>1.5</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>3.9</v>
+      </c>
+      <c r="G114">
+        <v>4.5</v>
+      </c>
+      <c r="H114">
         <v>3.4</v>
       </c>
-      <c r="D114">
-        <v>3.2</v>
-      </c>
-      <c r="E114">
-        <v>1.5</v>
-      </c>
-      <c r="F114">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G114">
-        <v>3</v>
-      </c>
-      <c r="H114">
-        <v>4.0999999999999996</v>
-      </c>
       <c r="I114">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="J114">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="K114">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="L114">
         <f t="shared" si="1"/>
-        <v>2.9199999999999995</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="C115">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D115">
+        <v>3.2</v>
+      </c>
+      <c r="E115">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F115">
+        <v>2.1</v>
+      </c>
+      <c r="G115">
+        <v>3.5</v>
+      </c>
+      <c r="H115">
+        <v>2.6</v>
+      </c>
+      <c r="I115">
+        <v>3.9</v>
+      </c>
+      <c r="J115">
+        <v>2.7</v>
+      </c>
+      <c r="K115">
         <v>1.5</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115">
-        <v>3.9</v>
-      </c>
-      <c r="G115">
-        <v>4.5</v>
-      </c>
-      <c r="H115">
-        <v>3.4</v>
-      </c>
-      <c r="I115">
-        <v>3.6</v>
-      </c>
-      <c r="J115">
-        <v>4</v>
-      </c>
-      <c r="K115">
-        <v>3.1</v>
       </c>
       <c r="L115">
         <f t="shared" si="1"/>
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>2.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="D116">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="E116">
-        <v>4.5999999999999996</v>
+        <v>1.4</v>
       </c>
       <c r="F116">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G116">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H116">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="I116">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="J116">
         <v>2.7</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L116">
         <f t="shared" si="1"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>4.5999999999999996</v>
+        <v>1.4</v>
       </c>
       <c r="C117">
+        <v>2.1</v>
+      </c>
+      <c r="D117">
+        <v>4.8</v>
+      </c>
+      <c r="E117">
         <v>2.8</v>
       </c>
-      <c r="D117">
-        <v>1.5</v>
-      </c>
-      <c r="E117">
-        <v>1.4</v>
-      </c>
       <c r="F117">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="G117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="J117">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="K117">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L117">
         <f t="shared" si="1"/>
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C118">
         <v>1.4</v>
       </c>
-      <c r="C118">
-        <v>2.1</v>
-      </c>
       <c r="D118">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="E118">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="I118">
         <v>1.9</v>
       </c>
       <c r="J118">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="L118">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.8499999999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
+        <v>4.8</v>
+      </c>
+      <c r="C119">
+        <v>1.7</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C119">
-        <v>1.4</v>
-      </c>
-      <c r="D119">
-        <v>3.4</v>
-      </c>
-      <c r="E119">
-        <v>2.7</v>
-      </c>
       <c r="F119">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G119">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H119">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J119">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="K119">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="L119">
         <f t="shared" si="1"/>
-        <v>2.8499999999999996</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="C120">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="E120">
-        <v>1.1000000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="F120">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G120">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="I120">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="J120">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="K120">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L120">
         <f t="shared" si="1"/>
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.4199999999999995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
         <v>2.8</v>
       </c>
-      <c r="D121">
-        <v>3.9</v>
-      </c>
       <c r="E121">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="F121">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H121">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="I121">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="J121">
-        <v>4.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K121">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="L121">
         <f t="shared" si="1"/>
-        <v>3.4199999999999995</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.6399999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D122">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="E122">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F122">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="G122">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H122">
+        <v>1.9</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>3.5</v>
+      </c>
+      <c r="K122">
         <v>3.4</v>
-      </c>
-      <c r="I122">
-        <v>1.7</v>
-      </c>
-      <c r="J122">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K122">
-        <v>3.7</v>
       </c>
       <c r="L122">
         <f t="shared" si="1"/>
-        <v>2.6399999999999997</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.5599999999999996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="C123">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="E123">
-        <v>1.1000000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="F123">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="G123">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H123">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="J123">
-        <v>3.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K123">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L123">
         <f t="shared" si="1"/>
-        <v>2.5599999999999996</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.1900000000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="D124">
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E124">
+        <v>4.7</v>
+      </c>
+      <c r="F124">
+        <v>1.9</v>
+      </c>
+      <c r="G124">
+        <v>4.8</v>
+      </c>
+      <c r="H124">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I124">
+        <v>2.6</v>
+      </c>
+      <c r="J124">
         <v>3.3</v>
       </c>
-      <c r="F124">
-        <v>3.7</v>
-      </c>
-      <c r="G124">
-        <v>3.9</v>
-      </c>
-      <c r="H124">
-        <v>5</v>
-      </c>
-      <c r="I124">
-        <v>3.6</v>
-      </c>
-      <c r="J124">
-        <v>2.2999999999999998</v>
-      </c>
       <c r="K124">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L124">
         <f t="shared" si="1"/>
-        <v>3.1900000000000004</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="C125">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="D125">
-        <v>2.2000000000000002</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E125">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="F125">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="G125">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H125">
-        <v>4.9000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="I125">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="J125">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K125">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L125">
         <f t="shared" si="1"/>
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="C126">
+        <v>4.5</v>
+      </c>
+      <c r="D126">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E126">
+        <v>4.5</v>
+      </c>
+      <c r="F126">
+        <v>3.1</v>
+      </c>
+      <c r="G126">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H126">
+        <v>3.5</v>
+      </c>
+      <c r="I126">
+        <v>4.5</v>
+      </c>
+      <c r="J126">
         <v>4</v>
       </c>
-      <c r="D126">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E126">
-        <v>4.3</v>
-      </c>
-      <c r="F126">
+      <c r="K126">
         <v>4.5</v>
-      </c>
-      <c r="G126">
-        <v>1.8</v>
-      </c>
-      <c r="H126">
-        <v>3.4</v>
-      </c>
-      <c r="I126">
-        <v>1.7</v>
-      </c>
-      <c r="J126">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K126">
-        <v>3.1</v>
       </c>
       <c r="L126">
         <f t="shared" si="1"/>
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C127">
+        <v>3.4</v>
+      </c>
+      <c r="D127">
+        <v>3.5</v>
+      </c>
+      <c r="E127">
+        <v>1.7</v>
+      </c>
+      <c r="F127">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G127">
         <v>4.5</v>
       </c>
-      <c r="C127">
-        <v>4.5</v>
-      </c>
-      <c r="D127">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E127">
-        <v>4.5</v>
-      </c>
-      <c r="F127">
-        <v>3.1</v>
-      </c>
-      <c r="G127">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="H127">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I127">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J127">
-        <v>4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K127">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="L127">
         <f t="shared" si="1"/>
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.0599999999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
+        <v>3.7</v>
+      </c>
+      <c r="C128">
+        <v>2.8</v>
+      </c>
+      <c r="D128">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128">
+        <v>3.5</v>
+      </c>
+      <c r="G128">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C128">
-        <v>3.4</v>
-      </c>
-      <c r="D128">
-        <v>3.5</v>
-      </c>
-      <c r="E128">
-        <v>1.7</v>
-      </c>
-      <c r="F128">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G128">
-        <v>4.5</v>
-      </c>
       <c r="H128">
+        <v>3.6</v>
+      </c>
+      <c r="I128">
         <v>4</v>
       </c>
-      <c r="I128">
-        <v>3</v>
-      </c>
       <c r="J128">
-        <v>2.2999999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="K128">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="L128">
         <f t="shared" si="1"/>
-        <v>3.0599999999999996</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.2299999999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="C129">
+        <v>2.6</v>
+      </c>
+      <c r="D129">
         <v>2.8</v>
       </c>
-      <c r="D129">
+      <c r="E129">
+        <v>2.5</v>
+      </c>
+      <c r="F129">
+        <v>4.2</v>
+      </c>
+      <c r="G129">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E129">
-        <v>3</v>
-      </c>
-      <c r="F129">
-        <v>3.5</v>
-      </c>
-      <c r="G129">
-        <v>4.0999999999999996</v>
-      </c>
       <c r="H129">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J129">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K129">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
         <f t="shared" si="1"/>
-        <v>3.2299999999999995</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.6499999999999995</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C130">
-        <v>2.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D130">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="E130">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F130">
+        <v>1.9</v>
+      </c>
+      <c r="G130">
         <v>2.5</v>
       </c>
-      <c r="F130">
-        <v>4.2</v>
-      </c>
-      <c r="G130">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="H130">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="I130">
-        <v>4.5999999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J130">
         <v>2.2000000000000002</v>
       </c>
       <c r="K130">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L130">
-        <f t="shared" si="1"/>
-        <v>2.6499999999999995</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L130:L190" si="2">AVERAGE(B130:K130)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.1000000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="C131">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="D131">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="E131">
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="F131">
-        <v>1.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G131">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H131">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="I131">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="J131">
-        <v>2.2000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="K131">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131:L191" si="2">AVERAGE(B131:K131)</f>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>3.1700000000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5552,935 +5546,935 @@
         <v>3.2</v>
       </c>
       <c r="C132">
-        <v>3.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D132">
-        <v>2.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E132">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="F132">
-        <v>4.9000000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="G132">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H132">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="I132">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="J132">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="K132">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="L132">
         <f t="shared" si="2"/>
-        <v>3.1700000000000004</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="D133">
-        <v>4.9000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="E133">
-        <v>3.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F133">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G133">
-        <v>3.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H133">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I133">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="J133">
         <v>2.5</v>
       </c>
       <c r="K133">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
         <f t="shared" si="2"/>
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="C134">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="D134">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="E134">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="F134">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="G134">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="H134">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="I134">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J134">
         <v>2.5</v>
       </c>
       <c r="K134">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L134">
         <f t="shared" si="2"/>
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="C135">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D135">
-        <v>1.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="F135">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G135">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H135">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="I135">
-        <v>4.0999999999999996</v>
+        <v>2.6</v>
       </c>
       <c r="J135">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="K135">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="L135">
         <f t="shared" si="2"/>
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.7399999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C136">
         <v>1.8</v>
       </c>
       <c r="D136">
+        <v>2.7</v>
+      </c>
+      <c r="E136">
+        <v>1.5</v>
+      </c>
+      <c r="F136">
+        <v>1.6</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E136">
-        <v>3.6</v>
-      </c>
-      <c r="F136">
-        <v>4.7</v>
-      </c>
-      <c r="G136">
-        <v>2</v>
-      </c>
-      <c r="H136">
-        <v>2.4</v>
-      </c>
-      <c r="I136">
-        <v>2.6</v>
-      </c>
       <c r="J136">
-        <v>3.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
         <f t="shared" si="2"/>
-        <v>2.7399999999999998</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C137">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D137">
-        <v>2.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E137">
+        <v>1.6</v>
+      </c>
+      <c r="F137">
+        <v>1.9</v>
+      </c>
+      <c r="G137">
         <v>1.5</v>
       </c>
-      <c r="F137">
-        <v>1.6</v>
-      </c>
-      <c r="G137">
-        <v>3</v>
-      </c>
       <c r="H137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I137">
-        <v>4.5999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="J137">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L137">
         <f t="shared" si="2"/>
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="C138">
-        <v>2.2999999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="D138">
-        <v>4.9000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="E138">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="F138">
+        <v>3.2</v>
+      </c>
+      <c r="G138">
+        <v>1.7</v>
+      </c>
+      <c r="H138">
         <v>1.9</v>
       </c>
-      <c r="G138">
-        <v>1.5</v>
-      </c>
-      <c r="H138">
-        <v>4</v>
-      </c>
       <c r="I138">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="J138">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="K138">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L138">
         <f t="shared" si="2"/>
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.5599999999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="C139">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="E139">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="F139">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="G139">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H139">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="J139">
-        <v>2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K139">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="L139">
         <f t="shared" si="2"/>
-        <v>2.5599999999999996</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="D140">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E140">
+        <v>2.8</v>
+      </c>
+      <c r="F140">
         <v>1.5</v>
       </c>
-      <c r="F140">
-        <v>1.6</v>
-      </c>
       <c r="G140">
-        <v>5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="I140">
-        <v>3.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J140">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="K140">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L140">
         <f t="shared" si="2"/>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>4.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C141">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="D141">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E141">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="F141">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="G141">
-        <v>2.2999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="H141">
-        <v>2.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I141">
-        <v>1.1000000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="J141">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="K141">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L141">
         <f t="shared" si="2"/>
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.2699999999999996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
+        <v>2.6</v>
+      </c>
+      <c r="C142">
+        <v>2.5</v>
+      </c>
+      <c r="D142">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E142">
+        <v>2.1</v>
+      </c>
+      <c r="F142">
+        <v>4.3</v>
+      </c>
+      <c r="G142">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C142">
-        <v>1.8</v>
-      </c>
-      <c r="D142">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E142">
-        <v>1.9</v>
-      </c>
-      <c r="F142">
-        <v>3.1</v>
-      </c>
-      <c r="G142">
-        <v>3.8</v>
-      </c>
       <c r="H142">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="I142">
         <v>3.9</v>
       </c>
       <c r="J142">
-        <v>2.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K142">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="L142">
         <f t="shared" si="2"/>
-        <v>2.2699999999999996</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C143">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="D143">
-        <v>2.2999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="E143">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="F143">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="G143">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="H143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="I143">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="J143">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="K143">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="L143">
         <f t="shared" si="2"/>
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="C144">
-        <v>3.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D144">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="E144">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="F144">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G144">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H144">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J144">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="K144">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L144">
         <f t="shared" si="2"/>
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.9099999999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C145">
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="D145">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="G145">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H145">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I145">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J145">
-        <v>2.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K145">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="L145">
         <f t="shared" si="2"/>
-        <v>1.9099999999999997</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
+        <v>3.2</v>
+      </c>
+      <c r="C146">
+        <v>3.8</v>
+      </c>
+      <c r="D146">
+        <v>1.4</v>
+      </c>
+      <c r="E146">
+        <v>1.9</v>
+      </c>
+      <c r="F146">
+        <v>1.5</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C146">
-        <v>3.2</v>
-      </c>
-      <c r="D146">
-        <v>4</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146">
-        <v>1.7</v>
-      </c>
-      <c r="G146">
-        <v>4.3</v>
-      </c>
-      <c r="H146">
-        <v>1.8</v>
-      </c>
       <c r="I146">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="J146">
-        <v>1.1000000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="K146">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="L146">
         <f t="shared" si="2"/>
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
+        <v>3.5</v>
+      </c>
+      <c r="C147">
+        <v>2.9</v>
+      </c>
+      <c r="D147">
         <v>3.2</v>
       </c>
-      <c r="C147">
-        <v>3.8</v>
-      </c>
-      <c r="D147">
+      <c r="E147">
+        <v>4.8</v>
+      </c>
+      <c r="F147">
+        <v>1.6</v>
+      </c>
+      <c r="G147">
+        <v>1.7</v>
+      </c>
+      <c r="H147">
         <v>1.4</v>
       </c>
-      <c r="E147">
-        <v>1.9</v>
-      </c>
-      <c r="F147">
-        <v>1.5</v>
-      </c>
-      <c r="G147">
-        <v>2</v>
-      </c>
-      <c r="H147">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="I147">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="J147">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="K147">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L147">
         <f t="shared" si="2"/>
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.7600000000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="C148">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="E148">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="F148">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="G148">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H148">
+        <v>4</v>
+      </c>
+      <c r="I148">
         <v>1.4</v>
       </c>
-      <c r="I148">
-        <v>4.8</v>
-      </c>
       <c r="J148">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="K148">
         <v>2.2999999999999998</v>
       </c>
       <c r="L148">
         <f t="shared" si="2"/>
-        <v>2.7600000000000002</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="F149">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G149">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="I149">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="J149">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="K149">
-        <v>2.2999999999999998</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L149">
         <f t="shared" si="2"/>
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C150">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E150">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F150">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="G150">
-        <v>2.2000000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="H150">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="I150">
         <v>4.7</v>
       </c>
       <c r="J150">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="K150">
-        <v>4.0999999999999996</v>
+        <v>1.5</v>
       </c>
       <c r="L150">
         <f t="shared" si="2"/>
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.9299999999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="C151">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D151">
-        <v>4.4000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="E151">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F151">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="G151">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H151">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I151">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="J151">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K151">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="L151">
         <f t="shared" si="2"/>
-        <v>2.9299999999999997</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
+        <v>3.7</v>
+      </c>
+      <c r="C152">
+        <v>4.2</v>
+      </c>
+      <c r="D152">
         <v>2.5</v>
       </c>
-      <c r="C152">
-        <v>2.6</v>
-      </c>
-      <c r="D152">
-        <v>1.3</v>
-      </c>
       <c r="E152">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F152">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G152">
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H152">
         <v>2.7</v>
       </c>
       <c r="I152">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="J152">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="K152">
-        <v>4.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L152">
         <f t="shared" si="2"/>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>3.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C153">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="D153">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="E153">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F153">
         <v>2.2000000000000002</v>
       </c>
       <c r="G153">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="H153">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="J153">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="K153">
-        <v>1.1000000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="L153">
         <f t="shared" si="2"/>
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="C154">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="E154">
-        <v>1.1000000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="F154">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="G154">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H154">
         <v>4</v>
       </c>
       <c r="I154">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="J154">
-        <v>1.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K154">
-        <v>3.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L154">
         <f t="shared" si="2"/>
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>2.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="D155">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="E155">
+        <v>3.3</v>
+      </c>
+      <c r="F155">
+        <v>3.1</v>
+      </c>
+      <c r="G155">
+        <v>3.4</v>
+      </c>
+      <c r="H155">
         <v>4.2</v>
       </c>
-      <c r="F155">
-        <v>2.4</v>
-      </c>
-      <c r="G155">
-        <v>2.7</v>
-      </c>
-      <c r="H155">
-        <v>4</v>
-      </c>
       <c r="I155">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="J155">
-        <v>2.2999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="K155">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="L155">
         <f t="shared" si="2"/>
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6488,272 +6482,272 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C156">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D156">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>3.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F156">
         <v>3.1</v>
       </c>
       <c r="G156">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H156">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="I156">
         <v>1.4</v>
       </c>
       <c r="J156">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K156">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L156">
         <f t="shared" si="2"/>
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>4.4000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="C157">
+        <v>1.7</v>
+      </c>
+      <c r="D157">
+        <v>1.6</v>
+      </c>
+      <c r="E157">
         <v>3.4</v>
       </c>
-      <c r="D157">
+      <c r="F157">
+        <v>2.8</v>
+      </c>
+      <c r="G157">
+        <v>2.6</v>
+      </c>
+      <c r="H157">
         <v>3</v>
       </c>
-      <c r="E157">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F157">
-        <v>3.1</v>
-      </c>
-      <c r="G157">
-        <v>3.1</v>
-      </c>
-      <c r="H157">
-        <v>3.7</v>
-      </c>
       <c r="I157">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="J157">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L157">
         <f t="shared" si="2"/>
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.2899999999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="C158">
-        <v>1.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D158">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E158">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
         <v>2.8</v>
       </c>
-      <c r="G158">
-        <v>2.6</v>
-      </c>
       <c r="H158">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I158">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="K158">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="L158">
         <f t="shared" si="2"/>
-        <v>2.2899999999999996</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="C159">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="D159">
         <v>1.8</v>
       </c>
       <c r="E159">
-        <v>3.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G159">
-        <v>2.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H159">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I159">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J159">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="K159">
-        <v>4.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L159">
         <f t="shared" si="2"/>
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.4199999999999995</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="C160">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="D160">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="E160">
-        <v>4.5999999999999996</v>
+        <v>2.8</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="G160">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H160">
+        <v>1.6</v>
+      </c>
+      <c r="I160">
+        <v>3.4</v>
+      </c>
+      <c r="J160">
+        <v>4.2</v>
+      </c>
+      <c r="K160">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="H160">
-        <v>2.9</v>
-      </c>
-      <c r="I160">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J160">
-        <v>1.4</v>
-      </c>
-      <c r="K160">
-        <v>2.2000000000000002</v>
       </c>
       <c r="L160">
         <f t="shared" si="2"/>
-        <v>2.4199999999999995</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="C161">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="D161">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="E161">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="F161">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="G161">
-        <v>4.0999999999999996</v>
+        <v>1.3</v>
       </c>
       <c r="H161">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="I161">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J161">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="K161">
-        <v>4.4000000000000004</v>
+        <v>2.1</v>
       </c>
       <c r="L161">
         <f t="shared" si="2"/>
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="C162">
+        <v>3.1</v>
+      </c>
+      <c r="D162">
         <v>1.4</v>
-      </c>
-      <c r="D162">
-        <v>2.6</v>
       </c>
       <c r="E162">
         <v>3.5</v>
       </c>
       <c r="F162">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G162">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H162">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="I162">
-        <v>3.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J162">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K162">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L162">
         <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6761,406 +6755,406 @@
         <v>4.5</v>
       </c>
       <c r="C163">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D163">
         <v>3.1</v>
       </c>
-      <c r="D163">
-        <v>1.4</v>
-      </c>
       <c r="E163">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="F163">
-        <v>1.1000000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="G163">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H163">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I163">
-        <v>1.1000000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="J163">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="K163">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="L163">
         <f t="shared" si="2"/>
-        <v>2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.0799999999999996</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="C164">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>3.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E164">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="F164">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="G164">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H164">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I164">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="J164">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="K164">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="L164">
         <f t="shared" si="2"/>
-        <v>3.0799999999999996</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.6499999999999995</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C165">
         <v>4.8</v>
       </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
       <c r="D165">
-        <v>2.2000000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E165">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="F165">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G165">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H165">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="I165">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J165">
+        <v>3.1</v>
+      </c>
+      <c r="K165">
         <v>4.3</v>
-      </c>
-      <c r="J165">
-        <v>1.4</v>
-      </c>
-      <c r="K165">
-        <v>1.2</v>
       </c>
       <c r="L165">
         <f t="shared" si="2"/>
-        <v>2.6499999999999995</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>1.7</v>
+      </c>
+      <c r="D166">
+        <v>4.8</v>
+      </c>
+      <c r="E166">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C166">
-        <v>4.8</v>
-      </c>
-      <c r="D166">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E166">
-        <v>1.8</v>
-      </c>
       <c r="F166">
-        <v>1.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G166">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H166">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I166">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="J166">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="K166">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="L166">
         <f t="shared" si="2"/>
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="C167">
+        <v>1.8</v>
+      </c>
+      <c r="D167">
+        <v>4.5</v>
+      </c>
+      <c r="E167">
+        <v>3.2</v>
+      </c>
+      <c r="F167">
+        <v>2.1</v>
+      </c>
+      <c r="G167">
+        <v>3.6</v>
+      </c>
+      <c r="H167">
+        <v>2.6</v>
+      </c>
+      <c r="I167">
+        <v>4.8</v>
+      </c>
+      <c r="J167">
         <v>1.7</v>
       </c>
-      <c r="D167">
-        <v>4.8</v>
-      </c>
-      <c r="E167">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F167">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G167">
-        <v>1.9</v>
-      </c>
-      <c r="H167">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I167">
-        <v>3.7</v>
-      </c>
-      <c r="J167">
-        <v>3.6</v>
-      </c>
       <c r="K167">
-        <v>1.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L167">
         <f t="shared" si="2"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="C168">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>1.8</v>
+      </c>
+      <c r="F168">
+        <v>3.6</v>
+      </c>
+      <c r="G168">
+        <v>1.5</v>
+      </c>
+      <c r="H168">
+        <v>2.1</v>
+      </c>
+      <c r="I168">
+        <v>2.1</v>
+      </c>
+      <c r="J168">
+        <v>1.6</v>
+      </c>
+      <c r="K168">
         <v>4.5</v>
-      </c>
-      <c r="E168">
-        <v>3.2</v>
-      </c>
-      <c r="F168">
-        <v>2.1</v>
-      </c>
-      <c r="G168">
-        <v>3.6</v>
-      </c>
-      <c r="H168">
-        <v>2.6</v>
-      </c>
-      <c r="I168">
-        <v>4.8</v>
-      </c>
-      <c r="J168">
-        <v>1.7</v>
-      </c>
-      <c r="K168">
-        <v>2.2000000000000002</v>
       </c>
       <c r="L168">
         <f t="shared" si="2"/>
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>2.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C169">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E169">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F169">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="G169">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H169">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="J169">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="K169">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L169">
         <f t="shared" si="2"/>
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="C170">
-        <v>2.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D170">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E170">
+        <v>4.7</v>
+      </c>
+      <c r="F170">
+        <v>2.8</v>
+      </c>
+      <c r="G170">
+        <v>2.1</v>
+      </c>
+      <c r="H170">
         <v>1.5</v>
       </c>
-      <c r="F170">
-        <v>1.3</v>
-      </c>
-      <c r="G170">
-        <v>3.3</v>
-      </c>
-      <c r="H170">
-        <v>1</v>
-      </c>
       <c r="I170">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="J170">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K170">
         <v>2</v>
       </c>
       <c r="L170">
         <f t="shared" si="2"/>
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="C171">
-        <v>4.0999999999999996</v>
+        <v>1.9</v>
       </c>
       <c r="D171">
         <v>2</v>
       </c>
       <c r="E171">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="F171">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="G171">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H171">
         <v>2.1</v>
       </c>
-      <c r="H171">
-        <v>1.5</v>
-      </c>
       <c r="I171">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="J171">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="K171">
         <v>2</v>
       </c>
       <c r="L171">
         <f t="shared" si="2"/>
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E172">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="F172">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="G172">
+        <v>1.8</v>
+      </c>
+      <c r="H172">
+        <v>3.1</v>
+      </c>
+      <c r="I172">
+        <v>1.6</v>
+      </c>
+      <c r="J172">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K172">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="H172">
-        <v>2.1</v>
-      </c>
-      <c r="I172">
-        <v>2.6</v>
-      </c>
-      <c r="J172">
-        <v>1.3</v>
-      </c>
-      <c r="K172">
-        <v>2</v>
       </c>
       <c r="L172">
         <f t="shared" si="2"/>
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.8000000000000007</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C173">
-        <v>3.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D173">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="E173">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="F173">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="G173">
         <v>1.8</v>
@@ -7169,717 +7163,678 @@
         <v>3.1</v>
       </c>
       <c r="I173">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J173">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="K173">
-        <v>1.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="L173">
         <f t="shared" si="2"/>
-        <v>2.8000000000000007</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.1000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="C174">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="D174">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="E174">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="F174">
+        <v>1.6</v>
+      </c>
+      <c r="G174">
+        <v>3.1</v>
+      </c>
+      <c r="H174">
+        <v>5</v>
+      </c>
+      <c r="I174">
+        <v>1.5</v>
+      </c>
+      <c r="J174">
+        <v>4.5</v>
+      </c>
+      <c r="K174">
         <v>1.4</v>
-      </c>
-      <c r="G174">
-        <v>1.8</v>
-      </c>
-      <c r="H174">
-        <v>3.1</v>
-      </c>
-      <c r="I174">
-        <v>1.4</v>
-      </c>
-      <c r="J174">
-        <v>5</v>
-      </c>
-      <c r="K174">
-        <v>3.1</v>
       </c>
       <c r="L174">
         <f t="shared" si="2"/>
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="C175">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="D175">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E175">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F175">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="G175">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H175">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="J175">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K175">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L175">
         <f t="shared" si="2"/>
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.3400000000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>2.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C176">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D176">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="E176">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="F176">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I176">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J176">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="K176">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L176">
         <f t="shared" si="2"/>
-        <v>2.3400000000000003</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.3899999999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
+        <v>5</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>1.9</v>
+      </c>
+      <c r="E177">
+        <v>2.4</v>
+      </c>
+      <c r="F177">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C177">
-        <v>2.7</v>
-      </c>
-      <c r="D177">
-        <v>2</v>
-      </c>
-      <c r="E177">
-        <v>1.6</v>
-      </c>
-      <c r="F177">
-        <v>2</v>
-      </c>
       <c r="G177">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H177">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I177">
         <v>2.1</v>
       </c>
-      <c r="I177">
-        <v>3.1</v>
-      </c>
       <c r="J177">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="K177">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L177">
         <f t="shared" si="2"/>
-        <v>2.3899999999999997</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="D178">
+        <v>1.5</v>
+      </c>
+      <c r="E178">
+        <v>1.6</v>
+      </c>
+      <c r="F178">
+        <v>1.8</v>
+      </c>
+      <c r="G178">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H178">
+        <v>2.4</v>
+      </c>
+      <c r="I178">
+        <v>3.2</v>
+      </c>
+      <c r="J178">
         <v>1.9</v>
       </c>
-      <c r="E178">
-        <v>2.4</v>
-      </c>
-      <c r="F178">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G178">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H178">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I178">
-        <v>2.1</v>
-      </c>
-      <c r="J178">
-        <v>1.8</v>
-      </c>
       <c r="K178">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="L178">
         <f t="shared" si="2"/>
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C179">
+        <v>3.7</v>
+      </c>
+      <c r="D179">
+        <v>1.7</v>
+      </c>
+      <c r="E179">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F179">
+        <v>3.4</v>
+      </c>
+      <c r="G179">
         <v>1.6</v>
       </c>
-      <c r="C179">
-        <v>1.8</v>
-      </c>
-      <c r="D179">
+      <c r="H179">
+        <v>4.2</v>
+      </c>
+      <c r="I179">
+        <v>1.7</v>
+      </c>
+      <c r="J179">
+        <v>2.6</v>
+      </c>
+      <c r="K179">
         <v>1.5</v>
-      </c>
-      <c r="E179">
-        <v>1.6</v>
-      </c>
-      <c r="F179">
-        <v>1.8</v>
-      </c>
-      <c r="G179">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H179">
-        <v>2.4</v>
-      </c>
-      <c r="I179">
-        <v>3.2</v>
-      </c>
-      <c r="J179">
-        <v>1.9</v>
-      </c>
-      <c r="K179">
-        <v>1.9</v>
       </c>
       <c r="L179">
         <f t="shared" si="2"/>
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.9200000000000004</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>4.4000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="C180">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D180">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="F180">
+        <v>4.2</v>
+      </c>
+      <c r="G180">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H180">
+        <v>1.9</v>
+      </c>
+      <c r="I180">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J180">
+        <v>2.9</v>
+      </c>
+      <c r="K180">
         <v>3.4</v>
-      </c>
-      <c r="G180">
-        <v>1.6</v>
-      </c>
-      <c r="H180">
-        <v>4.2</v>
-      </c>
-      <c r="I180">
-        <v>1.7</v>
-      </c>
-      <c r="J180">
-        <v>2.6</v>
-      </c>
-      <c r="K180">
-        <v>1.5</v>
       </c>
       <c r="L180">
         <f t="shared" si="2"/>
-        <v>2.9200000000000004</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.9399999999999995</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
+        <v>1.3</v>
+      </c>
+      <c r="C181">
+        <v>2.7</v>
+      </c>
+      <c r="D181">
+        <v>2.1</v>
+      </c>
+      <c r="E181">
+        <v>3.1</v>
+      </c>
+      <c r="F181">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G181">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H181">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I181">
+        <v>4.7</v>
+      </c>
+      <c r="J181">
         <v>1.5</v>
       </c>
-      <c r="C181">
-        <v>4.2</v>
-      </c>
-      <c r="D181">
-        <v>3</v>
-      </c>
-      <c r="E181">
-        <v>5</v>
-      </c>
-      <c r="F181">
-        <v>4.2</v>
-      </c>
-      <c r="G181">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H181">
-        <v>1.9</v>
-      </c>
-      <c r="I181">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J181">
-        <v>2.9</v>
-      </c>
       <c r="K181">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L181">
         <f t="shared" si="2"/>
-        <v>2.9399999999999995</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.0999999999999996</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="C182">
-        <v>2.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D182">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="E182">
-        <v>3.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F182">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="G182">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="H182">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="I182">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J182">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="K182">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="L182">
         <f t="shared" si="2"/>
-        <v>3.0999999999999996</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5200000000000005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="C183">
-        <v>4.5999999999999996</v>
+        <v>2</v>
       </c>
       <c r="D183">
+        <v>2.6</v>
+      </c>
+      <c r="E183">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F183">
+        <v>3</v>
+      </c>
+      <c r="G183">
+        <v>2</v>
+      </c>
+      <c r="H183">
+        <v>1.4</v>
+      </c>
+      <c r="I183">
         <v>4.8</v>
       </c>
-      <c r="E183">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F183">
-        <v>4.5</v>
-      </c>
-      <c r="G183">
-        <v>4.5</v>
-      </c>
-      <c r="H183">
-        <v>4.5</v>
-      </c>
-      <c r="I183">
-        <v>4.5</v>
-      </c>
       <c r="J183">
-        <v>5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K183">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L183">
         <f t="shared" si="2"/>
-        <v>4.5200000000000005</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.0100000000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D184">
+        <v>4.7</v>
+      </c>
+      <c r="E184">
+        <v>2.1</v>
+      </c>
+      <c r="F184">
         <v>2.6</v>
       </c>
-      <c r="E184">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F184">
-        <v>3</v>
-      </c>
       <c r="G184">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H184">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="I184">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J184">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K184">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L184">
         <f t="shared" si="2"/>
-        <v>3.0100000000000002</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.7800000000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="C185">
-        <v>2.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D185">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="E185">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F185">
+        <v>2.7</v>
+      </c>
+      <c r="G185">
         <v>2.6</v>
       </c>
-      <c r="G185">
-        <v>2.7</v>
-      </c>
       <c r="H185">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="I185">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="J185">
-        <v>1.1000000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K185">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="L185">
         <f t="shared" si="2"/>
-        <v>2.7800000000000002</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="C186">
+        <v>4.8</v>
+      </c>
+      <c r="D186">
+        <v>1.5</v>
+      </c>
+      <c r="E186">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F186">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D186">
-        <v>1.9</v>
-      </c>
-      <c r="E186">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F186">
-        <v>2.7</v>
-      </c>
       <c r="G186">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H186">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="I186">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="J186">
-        <v>4.4000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K186">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L186">
         <f t="shared" si="2"/>
         <v>3.02</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C187">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="D187">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="E187">
-        <v>4.0999999999999996</v>
+        <v>2.4</v>
       </c>
       <c r="F187">
-        <v>4.4000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="G187">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="I187">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J187">
-        <v>1.1000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K187">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L187">
         <f t="shared" si="2"/>
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>4.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="C188">
-        <v>1.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D188">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F188">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="G188">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H188">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I188">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="J188">
-        <v>2.2000000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="K188">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="L188">
         <f t="shared" si="2"/>
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="C189">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="E189">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="F189">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="G189">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H189">
+        <v>4.3</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189">
+        <v>1.4</v>
+      </c>
+      <c r="K189">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="I189">
-        <v>1.3</v>
-      </c>
-      <c r="J189">
-        <v>1.3</v>
-      </c>
-      <c r="K189">
-        <v>1.6</v>
       </c>
       <c r="L189">
         <f t="shared" si="2"/>
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="C190">
         <v>4</v>
       </c>
       <c r="D190">
+        <v>3.3</v>
+      </c>
+      <c r="E190">
+        <v>2.9</v>
+      </c>
+      <c r="F190">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G190">
         <v>3.7</v>
       </c>
-      <c r="E190">
+      <c r="H190">
+        <v>1.3</v>
+      </c>
+      <c r="I190">
         <v>1.6</v>
       </c>
-      <c r="F190">
-        <v>5</v>
-      </c>
-      <c r="G190">
-        <v>1.2</v>
-      </c>
-      <c r="H190">
-        <v>4.3</v>
-      </c>
-      <c r="I190">
-        <v>2</v>
-      </c>
       <c r="J190">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="K190">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="L190">
-        <f t="shared" si="2"/>
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>3.2</v>
-      </c>
-      <c r="C191">
-        <v>4</v>
-      </c>
-      <c r="D191">
-        <v>3.3</v>
-      </c>
-      <c r="E191">
-        <v>2.9</v>
-      </c>
-      <c r="F191">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G191">
-        <v>3.7</v>
-      </c>
-      <c r="H191">
-        <v>1.3</v>
-      </c>
-      <c r="I191">
-        <v>1.6</v>
-      </c>
-      <c r="J191">
-        <v>3.7</v>
-      </c>
-      <c r="K191">
-        <v>1.7</v>
-      </c>
-      <c r="L191">
         <f t="shared" si="2"/>
         <v>2.7600000000000002</v>
       </c>
